--- a/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/GITHUB/Sites/DCDLEAFY.github.io/Sprint 2/Sprint_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5BAD599-D85F-D34B-9491-49E0D9D7758B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B586170-A4DB-D340-A515-983246BFD8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25380" windowHeight="14440" xr2:uid="{534C34EA-1E67-7A49-A34F-DDDABC004054}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Status</t>
   </si>
@@ -240,13 +240,171 @@
   </si>
   <si>
     <t>Incompleted || 02/02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -309,6 +467,30 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="12">
@@ -542,27 +724,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -573,6 +734,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -580,27 +783,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -917,13 +1099,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E7FF6-10D9-A640-9FCB-92C9939F9B69}">
-  <dimension ref="A2:N30"/>
+  <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="110" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="82.83203125" customWidth="1"/>
     <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
@@ -940,29 +1122,29 @@
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="30" t="s">
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="45" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="B3" s="8" t="s">
         <v>7</v>
       </c>
@@ -975,7 +1157,7 @@
       <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="33" t="s">
+      <c r="F3" s="26" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -996,13 +1178,13 @@
       <c r="L3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="31"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="41" t="s">
+      <c r="M3" s="46"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C4" s="10">
@@ -1014,8 +1196,10 @@
       <c r="E4" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="10"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1023,9 +1207,9 @@
       <c r="L4" s="10"/>
       <c r="M4" s="16"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="42"/>
-      <c r="B5" s="37" t="s">
+    <row r="5" spans="1:13">
+      <c r="A5" s="49"/>
+      <c r="B5" s="30" t="s">
         <v>27</v>
       </c>
       <c r="C5" s="4">
@@ -1035,10 +1219,12 @@
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="4" t="s">
+        <v>44</v>
+      </c>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -1046,9 +1232,9 @@
       <c r="L5" s="4"/>
       <c r="M5" s="15"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="42"/>
-      <c r="B6" s="38" t="s">
+    <row r="6" spans="1:13">
+      <c r="A6" s="49"/>
+      <c r="B6" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="3">
@@ -1060,7 +1246,7 @@
       <c r="E6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="35"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1069,9 +1255,9 @@
       <c r="L6" s="3"/>
       <c r="M6" s="16"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="42"/>
-      <c r="B7" s="37" t="s">
+    <row r="7" spans="1:13">
+      <c r="A7" s="49"/>
+      <c r="B7" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="4">
@@ -1083,7 +1269,7 @@
       <c r="E7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
@@ -1092,9 +1278,9 @@
       <c r="L7" s="4"/>
       <c r="M7" s="15"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="42"/>
-      <c r="B8" s="38" t="s">
+    <row r="8" spans="1:13">
+      <c r="A8" s="49"/>
+      <c r="B8" s="31" t="s">
         <v>30</v>
       </c>
       <c r="C8" s="3">
@@ -1106,7 +1292,7 @@
       <c r="E8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="35"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1115,9 +1301,9 @@
       <c r="L8" s="3"/>
       <c r="M8" s="16"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="42"/>
-      <c r="B9" s="37" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="49"/>
+      <c r="B9" s="30" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="4">
@@ -1129,8 +1315,10 @@
       <c r="E9" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="4"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1138,9 +1326,9 @@
       <c r="L9" s="4"/>
       <c r="M9" s="15"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="42"/>
-      <c r="B10" s="38" t="s">
+    <row r="10" spans="1:13">
+      <c r="A10" s="49"/>
+      <c r="B10" s="31" t="s">
         <v>32</v>
       </c>
       <c r="C10" s="3">
@@ -1152,7 +1340,7 @@
       <c r="E10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="35"/>
+      <c r="F10" s="28"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1161,9 +1349,9 @@
       <c r="L10" s="3"/>
       <c r="M10" s="16"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="42"/>
-      <c r="B11" s="37" t="s">
+    <row r="11" spans="1:13">
+      <c r="A11" s="49"/>
+      <c r="B11" s="30" t="s">
         <v>33</v>
       </c>
       <c r="C11" s="4">
@@ -1173,9 +1361,9 @@
         <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F11" s="35"/>
+        <v>36</v>
+      </c>
+      <c r="F11" s="28"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1184,9 +1372,9 @@
       <c r="L11" s="4"/>
       <c r="M11" s="15"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="42"/>
-      <c r="B12" s="38" t="s">
+    <row r="12" spans="1:13">
+      <c r="A12" s="49"/>
+      <c r="B12" s="31" t="s">
         <v>34</v>
       </c>
       <c r="C12" s="3">
@@ -1198,8 +1386,10 @@
       <c r="E12" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="3"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
@@ -1207,9 +1397,9 @@
       <c r="L12" s="3"/>
       <c r="M12" s="16"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="43"/>
-      <c r="B13" s="39" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="50"/>
+      <c r="B13" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="4">
@@ -1221,7 +1411,7 @@
       <c r="E13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="35"/>
+      <c r="F13" s="28"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1230,11 +1420,11 @@
       <c r="L13" s="5"/>
       <c r="M13" s="17"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="40"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="33"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="43" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="23" t="s">
@@ -1254,36 +1444,38 @@
       </c>
       <c r="K14" s="21"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="40"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="33"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="29"/>
+      <c r="E15" s="44"/>
       <c r="F15" s="24">
         <f>SUM(D4:D13)</f>
         <v>40</v>
       </c>
       <c r="G15" s="22">
-        <f>F15-SUM(G4:G13)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H15" s="22">
         <f>G15-SUM(H4:H13)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I15" s="22">
         <f>H15-SUM(I4:I13)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="J15" s="24">
         <f>I15-SUM(J4:J13)</f>
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="K15" s="20"/>
+      <c r="L15" s="12" t="s">
+        <v>41</v>
+      </c>
       <c r="M15" s="18"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
+    <row r="16" spans="1:13" ht="21">
+      <c r="A16" s="33"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -1293,12 +1485,23 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="19"/>
+      <c r="L16" s="35" t="s">
+        <v>40</v>
+      </c>
       <c r="M16" s="18"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="40"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" ht="21">
+      <c r="A17" s="33"/>
+      <c r="L17" s="36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="21">
+      <c r="L18" s="37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="21">
       <c r="B19" s="14" t="s">
         <v>25</v>
       </c>
@@ -1307,34 +1510,40 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L19" s="38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="21">
       <c r="B20" s="13"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C20" s="41"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+      <c r="L20" s="39" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="21">
       <c r="B21" s="13"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+      <c r="L21" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="N21" s="18"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14">
       <c r="B22" s="13"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
       <c r="N22" s="18"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14">
       <c r="N23" s="18"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B24" s="12" t="s">
-        <v>41</v>
-      </c>
+    <row r="24" spans="1:14">
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -1342,65 +1551,46 @@
       <c r="G24" s="18"/>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B25" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
+    <row r="25" spans="1:14">
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B26" s="46" t="s">
-        <v>37</v>
-      </c>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
+    <row r="26" spans="1:14">
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
-    <row r="27" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B27" s="47" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
+    <row r="27" spans="1:14">
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
     </row>
-    <row r="28" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B28" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
+    <row r="28" spans="1:14">
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>
       <c r="H28" s="18"/>
     </row>
-    <row r="29" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B29" s="49" t="s">
-        <v>5</v>
-      </c>
+    <row r="29" spans="1:14">
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
     </row>
-    <row r="30" spans="1:14" ht="21" x14ac:dyDescent="0.2">
-      <c r="B30" s="50" t="s">
-        <v>39</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="A4:A13"/>
     <mergeCell ref="C22:E22"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="E14:E15"/>
@@ -1408,7 +1598,6 @@
     <mergeCell ref="G2:L2"/>
     <mergeCell ref="C20:E20"/>
     <mergeCell ref="C21:E21"/>
-    <mergeCell ref="A4:A13"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/GITHUB/Sites/DCDLEAFY.github.io/Sprint 2/Sprint_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B586170-A4DB-D340-A515-983246BFD8F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5811F00-9DC2-ED46-BECC-9E7840F2978D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25380" windowHeight="14440" xr2:uid="{534C34EA-1E67-7A49-A34F-DDDABC004054}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
   <si>
     <t>Status</t>
   </si>
@@ -89,88 +89,223 @@
     <t>Story Points Left</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">02/02 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+    <t>Sprint 2</t>
+  </si>
+  <si>
+    <t>New points for the sprint backlog founded from sprint 2 for sprint 3:</t>
+  </si>
+  <si>
+    <t>A patient should be able to view institutions on map</t>
+  </si>
+  <si>
+    <t>A patient should be able to find institution based on distance Or Price</t>
+  </si>
+  <si>
+    <t>A Patient should be able to find institutes showing price and distance</t>
+  </si>
+  <si>
+    <t>A patient should be able to find institution by price based on procedures</t>
+  </si>
+  <si>
+    <t>A patient should be able to view institutions on map as well as price</t>
+  </si>
+  <si>
+    <t>A patient can track current location on map</t>
+  </si>
+  <si>
+    <t>A patient can input own location on map</t>
+  </si>
+  <si>
+    <t>A Patient should be able to view his location on the map</t>
+  </si>
+  <si>
+    <t>A Patient should be able to insert part of a procedure name in order to retrieve full procedure name</t>
+  </si>
+  <si>
+    <t>A Patient should be able to find institution just based on procedures</t>
+  </si>
+  <si>
+    <t>Incompleted ||</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Ren</t>
+  </si>
+  <si>
+    <t>Justus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alif </t>
+  </si>
+  <si>
+    <t>Note: Colour</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Monday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">03/02 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tuesday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">04/02 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Wednesday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">05/02 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Thursday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">06/02 - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Friday</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">07/02 - </t>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Incompleted || 03/02</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">03/02 - </t>
     </r>
     <r>
       <rPr>
@@ -181,219 +316,228 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Saturday</t>
-    </r>
-  </si>
-  <si>
-    <t>Sprint 2</t>
-  </si>
-  <si>
-    <t>New points for the sprint backlog founded from sprint 2 for sprint 3:</t>
-  </si>
-  <si>
-    <t>A patient should be able to view institutions on map</t>
-  </si>
-  <si>
-    <t>A patient should be able to find institution based on distance Or Price</t>
-  </si>
-  <si>
-    <t>A Patient should be able to find institutes showing price and distance</t>
-  </si>
-  <si>
-    <t>A patient should be able to find institution by price based on procedures</t>
-  </si>
-  <si>
-    <t>A patient should be able to view institutions on map as well as price</t>
-  </si>
-  <si>
-    <t>A patient can track current location on map</t>
-  </si>
-  <si>
-    <t>A patient can input own location on map</t>
-  </si>
-  <si>
-    <t>A Patient should be able to view his location on the map</t>
-  </si>
-  <si>
-    <t>A Patient should be able to insert part of a procedure name in order to retrieve full procedure name</t>
-  </si>
-  <si>
-    <t>A Patient should be able to find institution just based on procedures</t>
-  </si>
-  <si>
-    <t>Incompleted ||</t>
-  </si>
-  <si>
-    <t>Dillon</t>
-  </si>
-  <si>
-    <t>Ren</t>
-  </si>
-  <si>
-    <t>Justus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alif </t>
-  </si>
-  <si>
-    <t>Note: Colour</t>
-  </si>
-  <si>
-    <t>Incompleted || 02/02</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>3=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Monday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">04/02 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Tuesday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">06/02 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4" tint="-0.249977111117893"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Thursday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">05/02 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="5" tint="-0.249977111117893"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Wednesday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">07/02 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>+</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="2" tint="-0.499984740745262"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>2=</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
+      <t>Friday</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">08/02 - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Saturday</t>
+    </r>
+  </si>
+  <si>
+    <t>Incompleted || 04/02</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>3=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>+</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
         <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Completed || 03/02 - 04/02</t>
+  </si>
+  <si>
+    <r>
+      <t>1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="3" tint="0.39997558519241921"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2=1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.249977111117893"/>
         <rFont val="Calibri (Body)"/>
       </rPr>
       <t>1</t>
@@ -404,7 +548,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="17">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -492,6 +636,21 @@
       <sz val="12"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri (Body)"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -685,7 +844,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -725,7 +884,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -755,6 +913,15 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -776,15 +943,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,8 +1262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E7FF6-10D9-A640-9FCB-92C9939F9B69}">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1126,21 +1287,21 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="47" t="s">
+      <c r="G2" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="45" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="47" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1161,31 +1322,31 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" s="48"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="2" t="s">
+      <c r="B4" s="28" t="s">
         <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="46"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="48" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>26</v>
       </c>
       <c r="C4" s="10">
         <v>8</v>
@@ -1193,14 +1354,16 @@
       <c r="D4" s="11">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="27"/>
+      <c r="E4" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="52"/>
       <c r="G4" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="10"/>
+        <v>36</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
@@ -1208,9 +1371,9 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="49"/>
-      <c r="B5" s="30" t="s">
-        <v>27</v>
+      <c r="A5" s="41"/>
+      <c r="B5" s="29" t="s">
+        <v>21</v>
       </c>
       <c r="C5" s="4">
         <v>8</v>
@@ -1219,13 +1382,15 @@
         <v>4</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="F5" s="27"/>
       <c r="G5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="4"/>
+        <v>37</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
@@ -1233,9 +1398,9 @@
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="49"/>
-      <c r="B6" s="31" t="s">
-        <v>28</v>
+      <c r="A6" s="41"/>
+      <c r="B6" s="30" t="s">
+        <v>22</v>
       </c>
       <c r="C6" s="3">
         <v>8</v>
@@ -1244,9 +1409,9 @@
         <v>4</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="F6" s="27"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
@@ -1256,9 +1421,9 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="49"/>
-      <c r="B7" s="30" t="s">
-        <v>29</v>
+      <c r="A7" s="41"/>
+      <c r="B7" s="29" t="s">
+        <v>23</v>
       </c>
       <c r="C7" s="4">
         <v>8</v>
@@ -1267,11 +1432,13 @@
         <v>4</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="F7" s="27"/>
       <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="H7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
@@ -1279,9 +1446,9 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="49"/>
-      <c r="B8" s="31" t="s">
-        <v>30</v>
+      <c r="A8" s="41"/>
+      <c r="B8" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
@@ -1290,9 +1457,9 @@
         <v>4</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="F8" s="27"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1302,9 +1469,9 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="49"/>
-      <c r="B9" s="30" t="s">
-        <v>31</v>
+      <c r="A9" s="41"/>
+      <c r="B9" s="29" t="s">
+        <v>25</v>
       </c>
       <c r="C9" s="4">
         <v>7</v>
@@ -1312,14 +1479,16 @@
       <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="28"/>
+      <c r="E9" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="51"/>
       <c r="G9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="4"/>
+        <v>38</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
@@ -1327,9 +1496,9 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="49"/>
-      <c r="B10" s="31" t="s">
-        <v>32</v>
+      <c r="A10" s="41"/>
+      <c r="B10" s="30" t="s">
+        <v>26</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
@@ -1338,9 +1507,9 @@
         <v>4</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F10" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="F10" s="27"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1350,9 +1519,9 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="49"/>
-      <c r="B11" s="30" t="s">
-        <v>33</v>
+      <c r="A11" s="41"/>
+      <c r="B11" s="29" t="s">
+        <v>27</v>
       </c>
       <c r="C11" s="4">
         <v>7</v>
@@ -1361,11 +1530,13 @@
         <v>4</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="28"/>
+        <v>47</v>
+      </c>
+      <c r="F11" s="27"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="H11" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1373,9 +1544,9 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="49"/>
-      <c r="B12" s="31" t="s">
-        <v>34</v>
+      <c r="A12" s="41"/>
+      <c r="B12" s="30" t="s">
+        <v>28</v>
       </c>
       <c r="C12" s="3">
         <v>7</v>
@@ -1384,11 +1555,11 @@
         <v>3</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="28"/>
+        <v>40</v>
+      </c>
+      <c r="F12" s="27"/>
       <c r="G12" s="3" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
@@ -1398,9 +1569,9 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="50"/>
-      <c r="B13" s="32" t="s">
-        <v>35</v>
+      <c r="A13" s="42"/>
+      <c r="B13" s="31" t="s">
+        <v>29</v>
       </c>
       <c r="C13" s="4">
         <v>6</v>
@@ -1409,9 +1580,9 @@
         <v>3</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="28"/>
+        <v>30</v>
+      </c>
+      <c r="F13" s="27"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1421,10 +1592,10 @@
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="33"/>
+      <c r="A14" s="32"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="43" t="s">
+      <c r="E14" s="45" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="23" t="s">
@@ -1445,10 +1616,10 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="33"/>
+      <c r="A15" s="32"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="44"/>
+      <c r="E15" s="46"/>
       <c r="F15" s="24">
         <f>SUM(D4:D13)</f>
         <v>40</v>
@@ -1457,25 +1628,24 @@
         <v>31</v>
       </c>
       <c r="H15" s="22">
-        <f>G15-SUM(H4:H13)</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="I15" s="22">
         <f>H15-SUM(I4:I13)</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="J15" s="24">
         <f>I15-SUM(J4:J13)</f>
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="21">
-      <c r="A16" s="33"/>
+      <c r="A16" s="32"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -1485,59 +1655,60 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="35" t="s">
-        <v>40</v>
+      <c r="L16" s="34" t="s">
+        <v>34</v>
       </c>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="21">
-      <c r="A17" s="33"/>
-      <c r="L17" s="36" t="s">
-        <v>37</v>
+      <c r="A17" s="32"/>
+      <c r="H17" s="20"/>
+      <c r="L17" s="35" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21">
-      <c r="L18" s="37" t="s">
-        <v>38</v>
+      <c r="L18" s="36" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21">
       <c r="B19" s="14" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="L19" s="38" t="s">
+      <c r="L19" s="37" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:14" ht="21">
       <c r="B20" s="13"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="L20" s="39" t="s">
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="L20" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21">
       <c r="B21" s="13"/>
-      <c r="C21" s="41"/>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
-      <c r="L21" s="40" t="s">
-        <v>39</v>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="L21" s="39" t="s">
+        <v>33</v>
       </c>
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="13"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14">
@@ -1552,32 +1723,32 @@
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>

--- a/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/GITHUB/Sites/DCDLEAFY.github.io/Sprint 2/Sprint_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5811F00-9DC2-ED46-BECC-9E7840F2978D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7056D5E-A684-A34F-8DD6-7DAE82A5C773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25380" windowHeight="14440" xr2:uid="{534C34EA-1E67-7A49-A34F-DDDABC004054}"/>
+    <workbookView xWindow="220" yWindow="460" windowWidth="25380" windowHeight="14440" xr2:uid="{534C34EA-1E67-7A49-A34F-DDDABC004054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
   <si>
     <t>Status</t>
   </si>
@@ -542,6 +542,18 @@
       </rPr>
       <t>1</t>
     </r>
+  </si>
+  <si>
+    <t>2=1+1</t>
+  </si>
+  <si>
+    <t>Completed || 04/02 - 05/02</t>
+  </si>
+  <si>
+    <t>Completed || 03/02 - 05/02</t>
+  </si>
+  <si>
+    <t>Incompleted || 05/02</t>
   </si>
 </sst>
 </file>
@@ -884,7 +896,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -913,6 +924,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,9 +955,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="20" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1263,7 +1275,7 @@
   <dimension ref="A2:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1345,7 +1357,7 @@
       <c r="A4" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B4" s="27" t="s">
         <v>20</v>
       </c>
       <c r="C4" s="10">
@@ -1354,10 +1366,10 @@
       <c r="D4" s="11">
         <v>6</v>
       </c>
-      <c r="E4" s="50" t="s">
+      <c r="E4" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F4" s="52"/>
+      <c r="F4" s="50"/>
       <c r="G4" s="10" t="s">
         <v>36</v>
       </c>
@@ -1372,7 +1384,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="41"/>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="4">
@@ -1384,7 +1396,7 @@
       <c r="E5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
@@ -1399,7 +1411,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="41"/>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="3">
@@ -1409,12 +1421,14 @@
         <v>4</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="27"/>
+        <v>57</v>
+      </c>
+      <c r="F6" s="51"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3" t="s">
+        <v>54</v>
+      </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
@@ -1422,7 +1436,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="41"/>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C7" s="4">
@@ -1434,7 +1448,7 @@
       <c r="E7" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="27"/>
+      <c r="F7" s="51"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
         <v>53</v>
@@ -1447,7 +1461,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="41"/>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>24</v>
       </c>
       <c r="C8" s="3">
@@ -1459,7 +1473,7 @@
       <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="27"/>
+      <c r="F8" s="51"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1470,7 +1484,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="41"/>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="28" t="s">
         <v>25</v>
       </c>
       <c r="C9" s="4">
@@ -1479,10 +1493,10 @@
       <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="51"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="4" t="s">
         <v>38</v>
       </c>
@@ -1497,7 +1511,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="41"/>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>26</v>
       </c>
       <c r="C10" s="3">
@@ -1509,7 +1523,7 @@
       <c r="E10" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="27"/>
+      <c r="F10" s="51"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
@@ -1520,7 +1534,7 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="41"/>
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="28" t="s">
         <v>27</v>
       </c>
       <c r="C11" s="4">
@@ -1529,15 +1543,17 @@
       <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="27"/>
+      <c r="E11" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="52"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="4"/>
+      <c r="I11" s="4" t="s">
+        <v>54</v>
+      </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -1545,7 +1561,7 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="41"/>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>28</v>
       </c>
       <c r="C12" s="3">
@@ -1554,15 +1570,17 @@
       <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F12" s="27"/>
+      <c r="E12" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="52"/>
       <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
@@ -1570,7 +1588,7 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="42"/>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="30" t="s">
         <v>29</v>
       </c>
       <c r="C13" s="4">
@@ -1582,7 +1600,7 @@
       <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="27"/>
+      <c r="F13" s="51"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1592,7 +1610,7 @@
       <c r="M13" s="17"/>
     </row>
     <row r="14" spans="1:13">
-      <c r="A14" s="32"/>
+      <c r="A14" s="31"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
       <c r="E14" s="45" t="s">
@@ -1616,7 +1634,7 @@
       <c r="K14" s="21"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="32"/>
+      <c r="A15" s="31"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="46"/>
@@ -1645,7 +1663,7 @@
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="21">
-      <c r="A16" s="32"/>
+      <c r="A16" s="31"/>
       <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
@@ -1655,20 +1673,21 @@
       <c r="I16" s="20"/>
       <c r="J16" s="20"/>
       <c r="K16" s="19"/>
-      <c r="L16" s="34" t="s">
+      <c r="L16" s="33" t="s">
         <v>34</v>
       </c>
       <c r="M16" s="18"/>
     </row>
     <row r="17" spans="1:14" ht="21">
-      <c r="A17" s="32"/>
+      <c r="A17" s="31"/>
       <c r="H17" s="20"/>
-      <c r="L17" s="35" t="s">
+      <c r="I17" s="20"/>
+      <c r="L17" s="34" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21">
-      <c r="L18" s="36" t="s">
+      <c r="L18" s="35" t="s">
         <v>32</v>
       </c>
     </row>
@@ -1681,7 +1700,7 @@
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
-      <c r="L19" s="37" t="s">
+      <c r="L19" s="36" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1690,7 +1709,7 @@
       <c r="C20" s="43"/>
       <c r="D20" s="43"/>
       <c r="E20" s="43"/>
-      <c r="L20" s="38" t="s">
+      <c r="L20" s="37" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1699,7 +1718,7 @@
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
-      <c r="L21" s="39" t="s">
+      <c r="L21" s="38" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="18"/>
@@ -1723,32 +1742,32 @@
       <c r="H24" s="18"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
+      <c r="C25" s="32"/>
+      <c r="D25" s="32"/>
       <c r="E25" s="18"/>
       <c r="F25" s="18"/>
       <c r="G25" s="18"/>
       <c r="H25" s="18"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
       <c r="E26" s="18"/>
       <c r="F26" s="18"/>
       <c r="G26" s="18"/>
       <c r="H26" s="18"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
+      <c r="C27" s="32"/>
+      <c r="D27" s="32"/>
       <c r="E27" s="18"/>
       <c r="F27" s="18"/>
       <c r="G27" s="18"/>
       <c r="H27" s="18"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
+      <c r="C28" s="32"/>
+      <c r="D28" s="32"/>
       <c r="E28" s="18"/>
       <c r="F28" s="18"/>
       <c r="G28" s="18"/>

--- a/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/GITHUB/Sites/DCDLEAFY.github.io/Sprint 2/Sprint_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7056D5E-A684-A34F-8DD6-7DAE82A5C773}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98666094-9DFF-3C47-AA2E-532CF562B1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="25380" windowHeight="14440" xr2:uid="{534C34EA-1E67-7A49-A34F-DDDABC004054}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
   <si>
     <t>Status</t>
   </si>
@@ -301,9 +301,6 @@
     </r>
   </si>
   <si>
-    <t>Incompleted || 03/02</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">03/02 - </t>
     </r>
@@ -544,9 +541,6 @@
     </r>
   </si>
   <si>
-    <t>2=1+1</t>
-  </si>
-  <si>
     <t>Completed || 04/02 - 05/02</t>
   </si>
   <si>
@@ -554,13 +548,109 @@
   </si>
   <si>
     <t>Incompleted || 05/02</t>
+  </si>
+  <si>
+    <t>1=1</t>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="4"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -618,13 +708,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri (Body)"/>
@@ -661,6 +744,16 @@
     <font>
       <sz val="12"/>
       <color theme="3" tint="0.39997558519241921"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="9"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -921,43 +1014,43 @@
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1274,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E7FF6-10D9-A640-9FCB-92C9939F9B69}">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1299,21 +1392,21 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="44" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="47" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1334,27 +1427,27 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M3" s="48"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -1366,15 +1459,15 @@
       <c r="D4" s="11">
         <v>6</v>
       </c>
-      <c r="E4" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F4" s="50"/>
+      <c r="E4" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="39"/>
       <c r="G4" s="10" t="s">
         <v>36</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
@@ -1383,7 +1476,7 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="41"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
@@ -1393,24 +1486,26 @@
       <c r="D5" s="4">
         <v>4</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="51"/>
+      <c r="E5" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" s="41"/>
       <c r="G5" s="4" t="s">
         <v>37</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I5" s="4"/>
+        <v>49</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="41"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
@@ -1421,13 +1516,13 @@
         <v>4</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="F6" s="51"/>
+        <v>55</v>
+      </c>
+      <c r="F6" s="40"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1435,7 +1530,7 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="41"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="28" t="s">
         <v>23</v>
       </c>
@@ -1446,21 +1541,23 @@
         <v>4</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F7" s="51"/>
+        <v>46</v>
+      </c>
+      <c r="F7" s="40"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I7" s="4"/>
+        <v>52</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="41"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="29" t="s">
         <v>24</v>
       </c>
@@ -1473,7 +1570,7 @@
       <c r="E8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="51"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
@@ -1483,7 +1580,7 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="41"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1493,15 +1590,15 @@
       <c r="D9" s="4">
         <v>4</v>
       </c>
-      <c r="E9" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="F9" s="52"/>
+      <c r="E9" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="41"/>
       <c r="G9" s="4" t="s">
         <v>38</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1510,7 +1607,7 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="41"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="29" t="s">
         <v>26</v>
       </c>
@@ -1521,19 +1618,21 @@
         <v>4</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="F10" s="51"/>
+        <v>55</v>
+      </c>
+      <c r="F10" s="40"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="41"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>27</v>
       </c>
@@ -1543,16 +1642,16 @@
       <c r="D11" s="4">
         <v>4</v>
       </c>
-      <c r="E11" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="52"/>
+      <c r="E11" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="41"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
@@ -1560,7 +1659,7 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="41"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="29" t="s">
         <v>28</v>
       </c>
@@ -1570,10 +1669,10 @@
       <c r="D12" s="3">
         <v>3</v>
       </c>
-      <c r="E12" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="52"/>
+      <c r="E12" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="41"/>
       <c r="G12" s="3" t="s">
         <v>39</v>
       </c>
@@ -1587,7 +1686,7 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="42"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="30" t="s">
         <v>29</v>
       </c>
@@ -1600,7 +1699,7 @@
       <c r="E13" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="51"/>
+      <c r="F13" s="40"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1613,7 +1712,7 @@
       <c r="A14" s="31"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="47" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="23" t="s">
@@ -1637,7 +1736,7 @@
       <c r="A15" s="31"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="46"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="24">
         <f>SUM(D4:D13)</f>
         <v>40</v>
@@ -1706,28 +1805,28 @@
     </row>
     <row r="20" spans="1:14" ht="21">
       <c r="B20" s="13"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="L20" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21">
       <c r="B21" s="13"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="L21" s="38" t="s">
+      <c r="C21" s="45"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="L21" s="52" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="13"/>
-      <c r="C22" s="43"/>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
+      <c r="C22" s="45"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14">

--- a/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/GITHUB/Sites/DCDLEAFY.github.io/Sprint 2/Sprint_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98666094-9DFF-3C47-AA2E-532CF562B1AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB55DA6D-ED03-F349-AFA8-A03689C676FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="25380" windowHeight="14440" xr2:uid="{534C34EA-1E67-7A49-A34F-DDDABC004054}"/>
   </bookViews>
@@ -1018,6 +1018,9 @@
     <xf numFmtId="20" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1047,9 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,8 +1367,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E7FF6-10D9-A640-9FCB-92C9939F9B69}">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="110" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1392,21 +1392,21 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="49" t="s">
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="50" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1444,10 +1444,10 @@
       <c r="L3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="51"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -1476,7 +1476,7 @@
       <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="43"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
@@ -1505,7 +1505,7 @@
       <c r="M5" s="15"/>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="43"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
@@ -1530,7 +1530,7 @@
       <c r="M6" s="16"/>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="43"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="28" t="s">
         <v>23</v>
       </c>
@@ -1557,7 +1557,7 @@
       <c r="M7" s="15"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="43"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="29" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1580,7 @@
       <c r="M8" s="16"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="43"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="M9" s="15"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="43"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="29" t="s">
         <v>26</v>
       </c>
@@ -1632,7 +1632,7 @@
       <c r="M10" s="16"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="43"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="28" t="s">
         <v>27</v>
       </c>
@@ -1659,7 +1659,7 @@
       <c r="M11" s="15"/>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="43"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="29" t="s">
         <v>28</v>
       </c>
@@ -1686,7 +1686,7 @@
       <c r="M12" s="16"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="44"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="30" t="s">
         <v>29</v>
       </c>
@@ -1712,7 +1712,7 @@
       <c r="A14" s="31"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="47" t="s">
+      <c r="E14" s="48" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="23" t="s">
@@ -1736,7 +1736,7 @@
       <c r="A15" s="31"/>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="48"/>
+      <c r="E15" s="49"/>
       <c r="F15" s="24">
         <f>SUM(D4:D13)</f>
         <v>40</v>
@@ -1748,12 +1748,11 @@
         <v>21</v>
       </c>
       <c r="I15" s="22">
-        <f>H15-SUM(I4:I13)</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="J15" s="24">
         <f>I15-SUM(J4:J13)</f>
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="K15" s="20"/>
       <c r="L15" s="12" t="s">
@@ -1805,28 +1804,28 @@
     </row>
     <row r="20" spans="1:14" ht="21">
       <c r="B20" s="13"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="L20" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21">
       <c r="B21" s="13"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="45"/>
-      <c r="E21" s="45"/>
-      <c r="L21" s="52" t="s">
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="L21" s="42" t="s">
         <v>33</v>
       </c>
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14">
       <c r="B22" s="13"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14">

--- a/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
+++ b/Sprint 2/Sprint_Backlog/Sprint 2 Backlog .xlsx
@@ -8,13 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stormfront/Desktop/GITHUB/Sites/DCDLEAFY.github.io/Sprint 2/Sprint_Backlog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB55DA6D-ED03-F349-AFA8-A03689C676FD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43FF8768-4D2D-D745-96EE-D6EE44DD440F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="220" yWindow="460" windowWidth="25380" windowHeight="14440" xr2:uid="{534C34EA-1E67-7A49-A34F-DDDABC004054}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$F$14:$K$14</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$F$15:$K$15</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$F$16:$K$16</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$F$14:$K$14</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$F$15:$K$15</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$F$16:$K$16</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -33,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="85">
   <si>
     <t>Status</t>
   </si>
@@ -123,9 +131,6 @@
   </si>
   <si>
     <t>A Patient should be able to find institution just based on procedures</t>
-  </si>
-  <si>
-    <t>Incompleted ||</t>
   </si>
   <si>
     <t>Dillon</t>
@@ -397,9 +402,6 @@
     </r>
   </si>
   <si>
-    <t>Incompleted || 04/02</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -547,9 +549,6 @@
     <t>Completed || 03/02 - 05/02</t>
   </si>
   <si>
-    <t>Incompleted || 05/02</t>
-  </si>
-  <si>
     <t>1=1</t>
   </si>
   <si>
@@ -644,13 +643,243 @@
       </rPr>
       <t>1</t>
     </r>
+  </si>
+  <si>
+    <t>Completed || 04/02 - 06/02</t>
+  </si>
+  <si>
+    <t>Completed || 05/02 - 06/02</t>
+  </si>
+  <si>
+    <t>Completed || 05/02 - 07/02</t>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Completed || 06/02 - 07/02</t>
+  </si>
+  <si>
+    <r>
+      <t>2=1+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="5" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="6" tint="-0.249977111117893"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1=</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="2" tint="-0.499984740745262"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <t>Day 5</t>
+  </si>
+  <si>
+    <t>User should be able to differentiate between markers on map</t>
+  </si>
+  <si>
+    <t>User should be able to get an update on the table when distance radius is lowered</t>
+  </si>
+  <si>
+    <t>User should be able to change distance radius when map is displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QoL </t>
+  </si>
+  <si>
+    <t>Userbility and making sure that the user is getting correct info</t>
+  </si>
+  <si>
+    <t>From sprint Review</t>
+  </si>
+  <si>
+    <t>Easily implemented once the api functions were figured out</t>
+  </si>
+  <si>
+    <t>Implemented the price easily however distance was difficult due to testing, found a way using chrome</t>
+  </si>
+  <si>
+    <t>After finding a way to test it, it was easy to implement due to research done</t>
+  </si>
+  <si>
+    <t>It was done after discussion on how to do it with the group, we all came to a conclusion</t>
+  </si>
+  <si>
+    <t>Prices are on the map markers, just need to click it</t>
+  </si>
+  <si>
+    <t>Due to research of the map api, this was easy to implement, No problems were encountered</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users geo location is set automatically but can change it if they wish </t>
+  </si>
+  <si>
+    <t>A different marker is present for the user location</t>
+  </si>
+  <si>
+    <t>The search function implementation was easy due to bootstrap</t>
+  </si>
+  <si>
+    <t>There was a slight problem but we all grouped up to talk about it and solve it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -754,6 +983,26 @@
     <font>
       <sz val="16"/>
       <color theme="9"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="5" tint="-0.499984740745262"/>
       <name val="Calibri (Body)"/>
     </font>
   </fonts>
@@ -949,7 +1198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1016,7 +1265,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,6 +1299,8 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1066,6 +1316,1100 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sprint</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Burnout Graph</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Story points</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$15:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-66B0-354F-B711-A8040A8C106D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Line of best fit</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="28575" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-66B0-354F-B711-A8040A8C106D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$F$14:$K$14</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Day 0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Day 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Day 2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Day 3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Day 4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Day 5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$16:$K$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66B0-354F-B711-A8040A8C106D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2067137728"/>
+        <c:axId val="2067208400"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2067137728"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067208400"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2067208400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2067137728"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2332182</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>192809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>11545</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>23091</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6210C5DB-76CD-3F44-877A-4AACBE97CA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1367,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87E7FF6-10D9-A640-9FCB-92C9939F9B69}">
   <dimension ref="A2:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="110" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView tabSelected="1" topLeftCell="B11" zoomScale="110" workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1384,7 +2728,7 @@
     <col min="10" max="10" width="14.6640625" customWidth="1"/>
     <col min="11" max="11" width="12.33203125" customWidth="1"/>
     <col min="12" max="12" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="76.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="81.5" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1392,21 +2736,21 @@
       <c r="B2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
       <c r="F2" s="25"/>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="50" t="s">
+      <c r="H2" s="51"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="51"/>
+      <c r="M2" s="49" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1427,27 +2771,27 @@
         <v>1</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M3" s="51"/>
+      <c r="M3" s="50"/>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>18</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -1460,23 +2804,25 @@
         <v>6</v>
       </c>
       <c r="E4" s="38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F4" s="39"/>
       <c r="G4" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
-      <c r="M4" s="16"/>
+      <c r="M4" s="16" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
-      <c r="A5" s="44"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="28" t="s">
         <v>21</v>
       </c>
@@ -1487,25 +2833,27 @@
         <v>4</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F5" s="41"/>
+        <v>52</v>
+      </c>
+      <c r="F5" s="40"/>
       <c r="G5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="15"/>
+      <c r="M5" s="15" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="44"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="29" t="s">
         <v>22</v>
       </c>
@@ -1515,22 +2863,26 @@
       <c r="D6" s="3">
         <v>4</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>55</v>
+      <c r="E6" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="F6" s="40"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>60</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
-      <c r="M6" s="16"/>
+      <c r="M6" s="16" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="A7" s="44"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="28" t="s">
         <v>23</v>
       </c>
@@ -1540,24 +2892,28 @@
       <c r="D7" s="4">
         <v>4</v>
       </c>
-      <c r="E7" s="10" t="s">
-        <v>46</v>
+      <c r="E7" s="38" t="s">
+        <v>57</v>
       </c>
       <c r="F7" s="40"/>
       <c r="G7" s="4"/>
       <c r="H7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="J7" s="4"/>
+        <v>53</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>53</v>
+      </c>
       <c r="K7" s="4"/>
       <c r="L7" s="4"/>
-      <c r="M7" s="15"/>
+      <c r="M7" s="15" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="A8" s="44"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="29" t="s">
         <v>24</v>
       </c>
@@ -1567,20 +2923,26 @@
       <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="10" t="s">
-        <v>30</v>
+      <c r="E8" s="38" t="s">
+        <v>64</v>
       </c>
       <c r="F8" s="40"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
+      <c r="J8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>66</v>
+      </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="16"/>
+      <c r="M8" s="16" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="A9" s="44"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="28" t="s">
         <v>25</v>
       </c>
@@ -1591,23 +2953,25 @@
         <v>4</v>
       </c>
       <c r="E9" s="38" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="F9" s="40"/>
       <c r="G9" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="15"/>
+      <c r="M9" s="15" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="44"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="29" t="s">
         <v>26</v>
       </c>
@@ -1617,22 +2981,26 @@
       <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="10" t="s">
-        <v>55</v>
+      <c r="E10" s="38" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="J10" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>61</v>
+      </c>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="16"/>
+      <c r="M10" s="16" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="A11" s="44"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>27</v>
       </c>
@@ -1643,23 +3011,25 @@
         <v>4</v>
       </c>
       <c r="E11" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="41"/>
+        <v>51</v>
+      </c>
+      <c r="F11" s="40"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J11" s="4"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="15"/>
+      <c r="M11" s="15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="A12" s="44"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="29" t="s">
         <v>28</v>
       </c>
@@ -1670,23 +3040,25 @@
         <v>3</v>
       </c>
       <c r="E12" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="41"/>
+        <v>52</v>
+      </c>
+      <c r="F12" s="40"/>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>39</v>
+      <c r="I12" s="52" t="s">
+        <v>67</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="16"/>
+      <c r="M12" s="16" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="45"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="30" t="s">
         <v>29</v>
       </c>
@@ -1696,23 +3068,29 @@
       <c r="D13" s="4">
         <v>3</v>
       </c>
-      <c r="E13" s="10" t="s">
-        <v>30</v>
+      <c r="E13" s="38" t="s">
+        <v>59</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
+      <c r="J13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="L13" s="5"/>
-      <c r="M13" s="17"/>
+      <c r="M13" s="17" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="31"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="47" t="s">
         <v>17</v>
       </c>
       <c r="F14" s="23" t="s">
@@ -1730,49 +3108,73 @@
       <c r="J14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="K14" s="21"/>
+      <c r="K14" s="23" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="31"/>
-      <c r="C15" s="20"/>
+      <c r="C15" s="19"/>
       <c r="D15" s="20"/>
-      <c r="E15" s="49"/>
+      <c r="E15" s="48"/>
       <c r="F15" s="24">
         <f>SUM(D4:D13)</f>
         <v>40</v>
       </c>
       <c r="G15" s="22">
+        <f>40-9</f>
         <v>31</v>
       </c>
       <c r="H15" s="22">
+        <f>G15-10</f>
         <v>21</v>
       </c>
       <c r="I15" s="22">
-        <v>11</v>
+        <f>21-9</f>
+        <v>12</v>
       </c>
       <c r="J15" s="24">
-        <f>I15-SUM(J4:J13)</f>
-        <v>11</v>
-      </c>
-      <c r="K15" s="20"/>
+        <f>12-9</f>
+        <v>3</v>
+      </c>
+      <c r="K15" s="24">
+        <v>0</v>
+      </c>
       <c r="L15" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M15" s="18"/>
     </row>
     <row r="16" spans="1:13" ht="21">
       <c r="A16" s="31"/>
-      <c r="C16" s="19"/>
       <c r="D16" s="19"/>
       <c r="E16" s="19"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="19"/>
+      <c r="F16" s="25">
+        <f>40</f>
+        <v>40</v>
+      </c>
+      <c r="G16" s="53">
+        <f>F16-8</f>
+        <v>32</v>
+      </c>
+      <c r="H16" s="53">
+        <f t="shared" ref="H16:K16" si="0">G16-8</f>
+        <v>24</v>
+      </c>
+      <c r="I16" s="53">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J16" s="53">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="K16" s="53">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
       <c r="L16" s="33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M16" s="18"/>
     </row>
@@ -1781,12 +3183,12 @@
       <c r="H17" s="20"/>
       <c r="I17" s="20"/>
       <c r="L17" s="34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="21">
       <c r="L18" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="21">
@@ -1803,29 +3205,41 @@
       </c>
     </row>
     <row r="20" spans="1:14" ht="21">
-      <c r="B20" s="13"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
+      <c r="B20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="L20" s="37" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:14" ht="21">
-      <c r="B21" s="13"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="L21" s="42" t="s">
-        <v>33</v>
+      <c r="B21" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="45"/>
+      <c r="E21" s="45"/>
+      <c r="L21" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="N21" s="18"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="B22" s="13"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
+      <c r="B22" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>74</v>
+      </c>
+      <c r="D22" s="45"/>
+      <c r="E22" s="45"/>
       <c r="N22" s="18"/>
     </row>
     <row r="23" spans="1:14">
@@ -1889,5 +3303,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>